--- a/points_previous.xlsx
+++ b/points_previous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\workspace\PS_EC_AI\AI_CodeCoverage\T20Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70F5581-458B-46F7-AE7D-2810FB906E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF19E596-972C-4780-A728-13E8C9278E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Poll8_WIvsZIM_Margin</t>
+  </si>
+  <si>
+    <t>Poll12_ENGvsPAK</t>
+  </si>
+  <si>
+    <t>Poll13_ENGvsPAK_Margin</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +468,7 @@
     <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +496,14 @@
       <c r="I1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -519,8 +531,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -548,8 +566,14 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -577,8 +601,14 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -606,8 +636,14 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -635,8 +671,14 @@
       <c r="I6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -664,8 +706,14 @@
       <c r="I7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -693,8 +741,14 @@
       <c r="I8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -722,8 +776,14 @@
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -751,8 +811,14 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -780,8 +846,14 @@
       <c r="I11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -809,8 +881,14 @@
       <c r="I12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -838,8 +916,14 @@
       <c r="I13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -867,8 +951,14 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -896,8 +986,14 @@
       <c r="I15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -925,8 +1021,14 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -954,8 +1056,14 @@
       <c r="I17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -983,8 +1091,14 @@
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1012,8 +1126,14 @@
       <c r="I19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1039,6 +1159,12 @@
         <v>0</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>0</v>
       </c>
     </row>

--- a/points_previous.xlsx
+++ b/points_previous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\workspace\PS_EC_AI\AI_CodeCoverage\T20Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF19E596-972C-4780-A728-13E8C9278E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FBC3E6-99C7-455B-8C5A-FE3389D109FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T20 Prediction Game" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>Poll13_ENGvsPAK_Margin</t>
+  </si>
+  <si>
+    <t>Poll14_SLvsNZ</t>
+  </si>
+  <si>
+    <t>Poll14_SLvsNZ_Margin</t>
   </si>
 </sst>
 </file>
@@ -449,26 +455,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +508,14 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -537,8 +549,14 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -572,8 +590,14 @@
       <c r="K3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -607,8 +631,14 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -642,8 +672,14 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -677,8 +713,14 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -712,8 +754,14 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -747,8 +795,14 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -782,8 +836,14 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -817,8 +877,14 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -852,8 +918,14 @@
       <c r="K11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -887,8 +959,14 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -922,8 +1000,14 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -957,8 +1041,14 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -992,8 +1082,14 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1027,8 +1123,14 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1062,8 +1164,14 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1097,8 +1205,14 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1132,8 +1246,14 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1165,6 +1285,12 @@
         <v>0</v>
       </c>
       <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
     </row>

--- a/points_previous.xlsx
+++ b/points_previous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\workspace\PS_EC_AI\AI_CodeCoverage\T20Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FBC3E6-99C7-455B-8C5A-FE3389D109FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8512537C-5F64-4D24-B0B0-FFD830E1CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T20 Prediction Game" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -115,7 +115,13 @@
     <t>Poll14_SLvsNZ</t>
   </si>
   <si>
-    <t>Poll14_SLvsNZ_Margin</t>
+    <t>Poll15_SLvsNZ_Margin</t>
+  </si>
+  <si>
+    <t>Poll17_WIvsSA</t>
+  </si>
+  <si>
+    <t>Poll18_WIvsSA_Margin</t>
   </si>
 </sst>
 </file>
@@ -455,26 +461,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +521,14 @@
       <c r="M1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -555,8 +568,14 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -596,8 +615,14 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -637,8 +662,14 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -678,8 +709,14 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -719,8 +756,14 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -760,8 +803,14 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -801,8 +850,14 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -842,8 +897,14 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -883,8 +944,14 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -924,8 +991,14 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -965,8 +1038,14 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1085,14 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1047,8 +1132,14 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1088,8 +1179,14 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1226,14 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1170,8 +1273,14 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1211,8 +1320,14 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1252,8 +1367,14 @@
       <c r="M19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1291,6 +1412,12 @@
         <v>0</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
     </row>

--- a/points_previous.xlsx
+++ b/points_previous.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\workspace\PS_EC_AI\AI_CodeCoverage\T20Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8512537C-5F64-4D24-B0B0-FFD830E1CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A75F5F-F7E5-4132-8B9F-76C38C5DAE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Poll18_WIvsSA_Margin</t>
+  </si>
+  <si>
+    <t>Poll19_INDvsZIM</t>
+  </si>
+  <si>
+    <t>Poll20_INDvsZIM_Margin</t>
   </si>
 </sst>
 </file>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +487,7 @@
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +533,14 @@
       <c r="O1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -574,8 +586,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -621,8 +639,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -668,8 +692,14 @@
       <c r="O4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -715,8 +745,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -762,8 +798,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -809,8 +851,14 @@
       <c r="O7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -856,8 +904,14 @@
       <c r="O8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -903,8 +957,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -950,8 +1010,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -997,8 +1063,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1044,8 +1116,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1091,8 +1169,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1138,8 +1222,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1185,8 +1275,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1232,8 +1328,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1279,8 +1381,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1326,8 +1434,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1373,8 +1487,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1419,6 +1539,12 @@
       </c>
       <c r="O20">
         <v>0</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
